--- a/biology/Microbiologie/Orthoamphisiellidae/Orthoamphisiellidae.xlsx
+++ b/biology/Microbiologie/Orthoamphisiellidae/Orthoamphisiellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Orthoamphisiellidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Stichotrichida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Orthoamphisiella, composé du préfixe -ortho, (du grec ὀρθός / orthós, « droit ; juste ; réel »), et du suffixe -amphisiella, par allusion au genre Amphisiella Gourret &amp; Roeser, 1888, autre cilié de la famille des Amphisiellidae, littéralement « Amphisiella droit », en référence aux « rangées droites de cirres dans le champ (de cils) frontaux »[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Orthoamphisiella, composé du préfixe -ortho, (du grec ὀρθός / orthós, « droit ; juste ; réel »), et du suffixe -amphisiella, par allusion au genre Amphisiella Gourret &amp; Roeser, 1888, autre cilié de la famille des Amphisiellidae, littéralement « Amphisiella droit », en référence aux « rangées droites de cirres dans le champ (de cils) frontaux ». 
 </t>
         </is>
       </c>
@@ -544,9 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genre type
-Espèce type
-Orthoamphisiella stramenticola a un corps de forme presque rectangulaire, dont la taille est de 80-140 x 30-45 μm. Le bord droit du corps est linéaire à légèrement convexe, le gauche légèrement en retrait sous la zone adorale des membranelles (AZM). 
+          <t>Espèce type</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Orthoamphisiella stramenticola a un corps de forme presque rectangulaire, dont la taille est de 80-140 x 30-45 μm. Le bord droit du corps est linéaire à légèrement convexe, le gauche légèrement en retrait sous la zone adorale des membranelles (AZM). 
 Les deux extrémités sont largement arrondies. Parfois l’extrémité antérieure est rétrécie en forme de tête ; la postérieure est en pointe.
 Habituellement on observe :
 4 segments macronucléaires (macronoyaux) de forme ellipsoïdes à sphériques.
@@ -555,11 +573,7 @@
 5 cirres buccaux
 10 cirres fronto-ventraux distribué en 2 à 3 rangées.
 Une vacuole contractile sur le bord gauche au milieu du corps, sans canaux collecteurs.
-Des vacuoles alimentaires, de diamètre variant entre 3 et 7 μm, qui contiennent les restes alimentaires de protistes ciliés et des bactéries[1].
-Genre Cladotricha
-Cladotricha est un genre dont la forme est très élancée vivant en eau salée. D’une grande variabilité, il est généralement pointu vers l'arrière, de taille ordinaire de 100 μm, parfois plus long, jusqu'à environ 200 μm, en forme de bande et arrondi vers l'arrière.
-On y observe 4 rangées de cirres longs et fins ; seulement deux membranes frontales en brosse, principalement utilisées pour le mouvement ; un macronoyau simple, rond associé à un micronoyau ; aucune vacuole contractile. Le péristome présente une zone robuste, sorte de grosse lèvre membranoïde[2].
-</t>
+Des vacuoles alimentaires, de diamètre variant entre 3 et 7 μm, qui contiennent les restes alimentaires de protistes ciliés et des bactéries.</t>
         </is>
       </c>
     </row>
@@ -584,13 +598,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les membres Orthoamphisiella sont des ciliés très communs dans le sol, vivant notamment dans des litières de feuilles fraîches[1].
-Le genre Cladotricha vit en eau salée, mais est euryhalin, c'est-à-dire qu'il a une grande tolérance à la salinité[2].
+          <t>Genre Cladotricha</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladotricha est un genre dont la forme est très élancée vivant en eau salée. D’une grande variabilité, il est généralement pointu vers l'arrière, de taille ordinaire de 100 μm, parfois plus long, jusqu'à environ 200 μm, en forme de bande et arrondi vers l'arrière.
+On y observe 4 rangées de cirres longs et fins ; seulement deux membranes frontales en brosse, principalement utilisées pour le mouvement ; un macronoyau simple, rond associé à un micronoyau ; aucune vacuole contractile. Le péristome présente une zone robuste, sorte de grosse lèvre membranoïde.
 </t>
         </is>
       </c>
@@ -616,47 +636,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres Orthoamphisiella sont des ciliés très communs dans le sol, vivant notamment dans des litières de feuilles fraîches.
+Le genre Cladotricha vit en eau salée, mais est euryhalin, c'est-à-dire qu'il a une grande tolérance à la salinité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orthoamphisiellidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orthoamphisiellidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 mars 2023)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 mars 2023) :
 Circinella Foissner, 1994
 Cladotricha Gajewskaja, 1926
 Orthoamphisiella Eigner &amp; Foissner, 1991 genre type
-Espèce type Orthoamphisiella stramenticola[note 1],[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Orthoamphisiellidae</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orthoamphisiellidae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Orthoamphisiellidae a été créée en 1997 par le microbiologiste autrichien Peter Eigner (d)[4].
-</t>
+Espèce type Orthoamphisiella stramenticola[note 1],</t>
         </is>
       </c>
     </row>
@@ -681,10 +706,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Orthoamphisiellidae a été créée en 1997 par le microbiologiste autrichien Peter Eigner (d).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Orthoamphisiellidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orthoamphisiellidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) Peter Eigner, « Evolution of Morphogenetic Processes in the Orthoamphisiellidae N. Fam., Oxytrichidae, and Parakahliellidae N. Fam., and Their Depiction Using a Computer Method (Ciliophora, Hypotrichida) », Journal of Eukaryotic Microbiology, International Society of Protistologists, vol. 44, no 6,‎ novembre 1997, p. 553-573 (ISSN 1066-5234 et 1550-7408, DOI 10.1111/J.1550-7408.1997.TB05961.X)</t>
         </is>
